--- a/Zhodani Notes/Zhdant Orbital Stuff.xlsx
+++ b/Zhodani Notes/Zhdant Orbital Stuff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffkazmierski/Documents/GitHub/Zdetl/Zhodani Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1D791-BFE4-48B6-AA53-A0EFC7633E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9511D-9BCE-CD42-AC56-76B744352449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-11835" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{ADF65EEA-B356-454A-B9FA-F4ACDFA2097D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{ADF65EEA-B356-454A-B9FA-F4ACDFA2097D}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbital mechanics" sheetId="1" r:id="rId1"/>
@@ -500,9 +500,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -540,7 +540,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -646,7 +646,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,16 +798,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97B383A-7AAF-4127-96D2-F263B922DE87}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,7 +927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -960,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -972,7 +972,7 @@
         <v>6.135654885654886</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -981,7 +981,7 @@
         <v>6.3000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0.67359667359667363</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1025,14 +1025,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0.68940042644466193</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1186,12 +1186,12 @@
         <v>0.86165538341520209</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1218,12 +1218,12 @@
         <v>0.46207599650738074</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1261,26 +1261,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E550E2EA-BD00-4313-9A6C-F0BDEE09A710}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>447.04500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>50.083999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>44.083999999999989</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>38.083999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>32.083999999999989</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>26.083999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>20.083999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>14.083999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>8.0839999999999907</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>2.0839999999999907</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>-3.9160000000000093</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>-9.9160000000000093</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1656,12 +1656,12 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>2</v>
       </c>
